--- a/faraday/data/faraday_data.xlsx
+++ b/faraday/data/faraday_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackson\physics_387\faraday\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358A7E15-92F9-47C9-B860-0FDEBCD5A00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A1C7DE-405F-49F5-A80A-9FD0394CA843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3575F3C5-D2AE-4046-9C9E-C4B2BB311A8A}"/>
+    <workbookView xWindow="10152" yWindow="0" windowWidth="12984" windowHeight="12336" xr2:uid="{3575F3C5-D2AE-4046-9C9E-C4B2BB311A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="29">
   <si>
     <t>Filter</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Intensity</t>
+  </si>
+  <si>
+    <t>Magnetic Field (mT)</t>
   </si>
 </sst>
 </file>
@@ -508,33 +511,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68010286-82B1-4E54-B5E4-E54F924C71D2}">
-  <dimension ref="A1:AA64"/>
+  <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD64" sqref="AD64"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="99" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="8.88671875" style="2"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="13" max="13" width="8.88671875" style="2"/>
-    <col min="15" max="15" width="8.88671875" style="2"/>
-    <col min="17" max="17" width="8.88671875" style="2"/>
-    <col min="19" max="19" width="8.88671875" style="2"/>
-    <col min="21" max="21" width="8.88671875" style="2"/>
-    <col min="23" max="23" width="8.88671875" style="2"/>
-    <col min="26" max="26" width="15.109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="8.88671875" style="2"/>
+    <col min="16" max="16" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="8.88671875" style="2"/>
+    <col min="20" max="20" width="8.88671875" style="2"/>
+    <col min="22" max="22" width="8.88671875" style="2"/>
+    <col min="24" max="24" width="8.88671875" style="2"/>
+    <col min="27" max="27" width="15.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -542,5490 +545,5682 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1.73</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.036</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>334</v>
       </c>
-      <c r="G2" s="1">
-        <f>E2-40</f>
+      <c r="H2" s="1">
+        <f>F2-40</f>
         <v>294</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3.15E-2</v>
       </c>
-      <c r="I2" s="2">
-        <f>E2-30</f>
+      <c r="J2" s="2">
+        <f>F2-30</f>
         <v>304</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="K2" s="2">
-        <f>E2-20</f>
+      <c r="L2" s="2">
+        <f>F2-20</f>
         <v>314</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1.12E-2</v>
       </c>
-      <c r="M2" s="2">
-        <f>E2 - 10</f>
+      <c r="N2" s="2">
+        <f>F2 - 10</f>
         <v>324</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>3.7499999999999999E-3</v>
       </c>
-      <c r="O2" s="2">
-        <f>E2</f>
+      <c r="P2" s="2">
+        <f>F2</f>
         <v>334</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="Q2" s="2">
-        <f>E2+10</f>
+      <c r="R2" s="2">
+        <f>F2+10</f>
         <v>344</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="S2" s="2">
-        <f>E2+20</f>
+      <c r="T2" s="2">
+        <f>F2+20</f>
         <v>354</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>7.6E-3</v>
       </c>
-      <c r="U2" s="2">
-        <f>E2+30</f>
+      <c r="V2" s="2">
+        <f>F2+30</f>
         <v>364</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="W2" s="2">
-        <f>E2+40</f>
+      <c r="X2" s="2">
+        <f>F2+40</f>
         <v>374</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>0.03</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="AA2" s="2">
         <v>335.2749258914456</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1.01E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>1.73</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>332</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G64" si="0">E3-40</f>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H64" si="0">F3-40</f>
         <v>292</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3:I64" si="1">E3-30</f>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J64" si="1">F3-30</f>
         <v>302</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:K64" si="2">E3-20</f>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L64" si="2">F3-20</f>
         <v>312</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1.21E-2</v>
       </c>
-      <c r="M3" s="2">
-        <f t="shared" ref="M3:M64" si="3">E3 - 10</f>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N64" si="3">F3 - 10</f>
         <v>322</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>5.4400000000000004E-3</v>
       </c>
-      <c r="O3" s="2">
-        <f t="shared" ref="O3:O64" si="4">E3</f>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P64" si="4">F3</f>
         <v>332</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>2.1700000000000001E-3</v>
       </c>
-      <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q64" si="5">E3+10</f>
+      <c r="R3" s="2">
+        <f t="shared" ref="R3:R64" si="5">F3+10</f>
         <v>342</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2.7499999999999998E-3</v>
       </c>
-      <c r="S3" s="2">
-        <f t="shared" ref="S3:S64" si="6">E3+20</f>
+      <c r="T3" s="2">
+        <f t="shared" ref="T3:T64" si="6">F3+20</f>
         <v>352</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>6.7200000000000003E-3</v>
       </c>
-      <c r="U3" s="2">
-        <f t="shared" ref="U3:U64" si="7">E3+30</f>
+      <c r="V3" s="2">
+        <f t="shared" ref="V3:V64" si="7">F3+30</f>
         <v>362</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1.37E-2</v>
       </c>
-      <c r="W3" s="2">
-        <f t="shared" ref="W3:W64" si="8">E3+40</f>
+      <c r="X3" s="2">
+        <f t="shared" ref="X3:X64" si="8">F3+40</f>
         <v>372</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AA3" s="2">
         <v>338.28784038282151</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>2.6900000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>1.73</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.272</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>339</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
         <v>299</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.23E-2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <f t="shared" si="1"/>
         <v>309</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1.34E-2</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <f t="shared" si="2"/>
         <v>319</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>5.9100000000000003E-3</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <f t="shared" si="3"/>
         <v>329</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1.7600000000000001E-3</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <f t="shared" si="4"/>
         <v>339</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1.23E-3</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <f t="shared" si="5"/>
         <v>349</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>4.47E-3</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="2">
         <f t="shared" si="6"/>
         <v>359</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="U4" s="2">
+      <c r="V4" s="2">
         <f t="shared" si="7"/>
         <v>369</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="W4" s="2">
+      <c r="X4" s="2">
         <f t="shared" si="8"/>
         <v>379</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>2.75E-2</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AA4" s="2">
         <v>335.95791532802173</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2.1099999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>1.73</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.272</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>332</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>292</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <f t="shared" si="1"/>
         <v>302</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3.78E-2</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <f t="shared" si="2"/>
         <v>312</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2.23E-2</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <f t="shared" si="3"/>
         <v>322</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1.14E-2</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <f t="shared" si="4"/>
         <v>332</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>5.2099999999999998E-4</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <f t="shared" si="5"/>
         <v>342</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>6.96E-3</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <f t="shared" si="6"/>
         <v>352</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="U5" s="2">
+      <c r="V5" s="2">
         <f t="shared" si="7"/>
         <v>362</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0.03</v>
       </c>
-      <c r="W5" s="2">
+      <c r="X5" s="2">
         <f t="shared" si="8"/>
         <v>372</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AA5" s="2">
         <v>334.22446038178742</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>5.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>1.73</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>340</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <f t="shared" si="1"/>
         <v>310</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>8.1499999999999993E-3</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <f t="shared" si="4"/>
         <v>340</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>7.1399999999999996E-3</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <f t="shared" si="5"/>
         <v>350</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="2">
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <f t="shared" si="7"/>
         <v>370</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="W6" s="2">
+      <c r="X6" s="2">
         <f t="shared" si="8"/>
         <v>380</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AA6" s="2">
         <v>336.57688964029097</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>7.2899999999999996E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>1.73</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1.036</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>337</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <f t="shared" si="1"/>
         <v>307</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2.93E-2</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <f t="shared" si="2"/>
         <v>317</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1.46E-2</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <f t="shared" si="3"/>
         <v>327</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <f t="shared" si="4"/>
         <v>337</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1.9E-3</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <f t="shared" si="5"/>
         <v>347</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>6.2700000000000004E-3</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <f t="shared" si="6"/>
         <v>357</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <f t="shared" si="7"/>
         <v>367</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <f t="shared" si="8"/>
         <v>377</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>336.14800698539511</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>1.0499999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>1.73</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1.036</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>335</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
         <v>295</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <f t="shared" si="1"/>
         <v>305</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1.14E-2</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>4.0299999999999997E-3</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <f t="shared" si="4"/>
         <v>335</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1.5100000000000001E-3</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <f t="shared" si="5"/>
         <v>345</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T8" s="2">
         <f t="shared" si="6"/>
         <v>355</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <f t="shared" si="7"/>
         <v>365</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>0.02</v>
       </c>
-      <c r="W8" s="2">
+      <c r="X8" s="2">
         <f t="shared" si="8"/>
         <v>375</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AA8" s="2">
         <v>335.69612906843872</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>1.01E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>1.73</v>
+      </c>
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>334</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>294</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <f t="shared" si="1"/>
         <v>304</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>3.1E-2</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <f t="shared" si="2"/>
         <v>314</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <f t="shared" si="3"/>
         <v>324</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>8.0599999999999995E-3</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <f t="shared" si="4"/>
         <v>334</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>3.7100000000000002E-3</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <f t="shared" si="5"/>
         <v>344</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="S9" s="2">
+      <c r="T9" s="2">
         <f t="shared" si="6"/>
         <v>354</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="U9" s="2">
+      <c r="V9" s="2">
         <f t="shared" si="7"/>
         <v>364</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>2.46E-2</v>
       </c>
-      <c r="W9" s="2">
+      <c r="X9" s="2">
         <f t="shared" si="8"/>
         <v>374</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="AA9" s="2">
         <v>336.13170163781399</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>4.3099999999999996E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>1.73</v>
+      </c>
+      <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.272</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>340</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3.32E-2</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <f t="shared" si="1"/>
         <v>310</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.01</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>3.2200000000000002E-3</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <f t="shared" si="4"/>
         <v>340</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>2.5600000000000002E-3</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <f t="shared" si="5"/>
         <v>350</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>7.7499999999999999E-3</v>
       </c>
-      <c r="S10" s="2">
+      <c r="T10" s="2">
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="U10" s="2">
+      <c r="V10" s="2">
         <f t="shared" si="7"/>
         <v>370</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>2.98E-2</v>
       </c>
-      <c r="W10" s="2">
+      <c r="X10" s="2">
         <f t="shared" si="8"/>
         <v>380</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="AA10" s="2">
         <v>336.54722588931003</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>2.2799999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>0.41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>79.510000000000005</v>
+      </c>
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>335</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <f t="shared" si="0"/>
         <v>295</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <f t="shared" si="1"/>
         <v>305</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2.76E-2</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <f t="shared" si="4"/>
         <v>335</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="R11" s="2">
         <f t="shared" si="5"/>
         <v>345</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>4.0600000000000002E-3</v>
       </c>
-      <c r="S11" s="2">
+      <c r="T11" s="2">
         <f t="shared" si="6"/>
         <v>355</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1.32E-2</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <f t="shared" si="7"/>
         <v>365</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>2.63E-2</v>
       </c>
-      <c r="W11" s="2">
+      <c r="X11" s="2">
         <f t="shared" si="8"/>
         <v>375</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>3.9300000000000002E-2</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="AA11" s="2">
         <v>336.13170163781399</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>0.41</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>79.510000000000005</v>
+      </c>
+      <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1.272</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>336</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <f t="shared" si="0"/>
         <v>296</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3.27E-2</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <f t="shared" si="2"/>
         <v>316</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <f t="shared" si="4"/>
         <v>336</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1.82E-3</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="2">
         <f t="shared" si="5"/>
         <v>346</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>6.1399999999999996E-3</v>
       </c>
-      <c r="S12" s="2">
+      <c r="T12" s="2">
         <f t="shared" si="6"/>
         <v>356</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1.52E-2</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <f t="shared" si="7"/>
         <v>366</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>2.76E-2</v>
       </c>
-      <c r="W12" s="2">
+      <c r="X12" s="2">
         <f t="shared" si="8"/>
         <v>376</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="AA12" s="2">
         <v>336.54722588931003</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13">
         <v>0.41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>79.510000000000005</v>
+      </c>
+      <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1.036</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>340</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <f t="shared" si="1"/>
         <v>310</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="L13">
-        <v>0.105</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="M13">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="N13" s="2">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>3.6700000000000001E-3</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <f t="shared" si="4"/>
         <v>340</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>8.0789999999999996E-4</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="R13" s="2">
         <f t="shared" si="5"/>
         <v>350</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>3.4299999999999999E-3</v>
       </c>
-      <c r="S13" s="2">
+      <c r="T13" s="2">
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="U13" s="2">
+      <c r="V13" s="2">
         <f t="shared" si="7"/>
         <v>370</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>2.18E-2</v>
       </c>
-      <c r="W13" s="2">
+      <c r="X13" s="2">
         <f t="shared" si="8"/>
         <v>380</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="AA13" s="2">
         <v>335.69612906843872</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>1.7799999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14">
         <v>0.41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>79.510000000000005</v>
+      </c>
+      <c r="D14" t="s">
         <v>2</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.036</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>339</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <f t="shared" si="0"/>
         <v>299</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <f t="shared" si="1"/>
         <v>309</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1.14E-2</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <f t="shared" si="2"/>
         <v>319</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>6.0899999999999999E-3</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <f t="shared" si="3"/>
         <v>329</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1.91E-3</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <f t="shared" si="4"/>
         <v>339</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>6.5799999999999995E-4</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="2">
         <f t="shared" si="5"/>
         <v>349</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2.1800000000000001E-3</v>
       </c>
-      <c r="S14" s="2">
+      <c r="T14" s="2">
         <f t="shared" si="6"/>
         <v>359</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>6.2599999999999999E-3</v>
       </c>
-      <c r="U14" s="2">
+      <c r="V14" s="2">
         <f t="shared" si="7"/>
         <v>369</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1.24E-2</v>
       </c>
-      <c r="W14" s="2">
+      <c r="X14" s="2">
         <f t="shared" si="8"/>
         <v>379</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="AA14" s="2">
         <v>335.2749258914456</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15">
         <v>0.41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>79.510000000000005</v>
+      </c>
+      <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>333</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <f t="shared" si="0"/>
         <v>293</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <f t="shared" si="1"/>
         <v>303</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <f t="shared" si="2"/>
         <v>313</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <f t="shared" si="3"/>
         <v>323</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>5.3499999999999997E-3</v>
       </c>
-      <c r="O15" s="2">
+      <c r="P15" s="2">
         <f t="shared" si="4"/>
         <v>333</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>2.0899999999999998E-3</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="R15" s="2">
         <f t="shared" si="5"/>
         <v>343</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2.6199999999999999E-3</v>
       </c>
-      <c r="S15" s="2">
+      <c r="T15" s="2">
         <f t="shared" si="6"/>
         <v>353</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>7.0800000000000004E-3</v>
       </c>
-      <c r="U15" s="2">
+      <c r="V15" s="2">
         <f t="shared" si="7"/>
         <v>363</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="W15" s="2">
+      <c r="X15" s="2">
         <f t="shared" si="8"/>
         <v>373</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="AA15" s="2">
         <v>338.28784038282151</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>2.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16">
         <v>0.41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>79.510000000000005</v>
+      </c>
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.272</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>333</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <f t="shared" si="0"/>
         <v>293</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2.81E-2</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <f t="shared" si="1"/>
         <v>303</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1.9E-2</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <f t="shared" si="2"/>
         <v>313</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <f t="shared" si="3"/>
         <v>323</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>3.9899999999999996E-3</v>
       </c>
-      <c r="O16" s="2">
+      <c r="P16" s="2">
         <f t="shared" si="4"/>
         <v>333</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="R16" s="2">
         <f t="shared" si="5"/>
         <v>343</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>2.48E-3</v>
       </c>
-      <c r="S16" s="2">
+      <c r="T16" s="2">
         <f t="shared" si="6"/>
         <v>353</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="U16" s="2">
+      <c r="V16" s="2">
         <f t="shared" si="7"/>
         <v>363</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W16" s="2">
+      <c r="X16" s="2">
         <f t="shared" si="8"/>
         <v>373</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="AA16" s="2">
         <v>335.95791532802173</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1.33E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
       <c r="B17">
         <v>0.41</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>79.510000000000005</v>
+      </c>
+      <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>336</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <f t="shared" si="0"/>
         <v>296</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="2">
         <f t="shared" si="2"/>
         <v>316</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>9.8799999999999999E-3</v>
       </c>
-      <c r="O17" s="2">
+      <c r="P17" s="2">
         <f t="shared" si="4"/>
         <v>336</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>5.4599999999999996E-3</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="R17" s="2">
         <f t="shared" si="5"/>
         <v>346</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>9.0699999999999999E-3</v>
       </c>
-      <c r="S17" s="2">
+      <c r="T17" s="2">
         <f t="shared" si="6"/>
         <v>356</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="U17" s="2">
+      <c r="V17" s="2">
         <f t="shared" si="7"/>
         <v>366</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="W17" s="2">
+      <c r="X17" s="2">
         <f t="shared" si="8"/>
         <v>376</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="AA17" s="2">
         <v>336.57688964029097</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>3.3800000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10</v>
       </c>
       <c r="B18">
         <v>0.41</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>79.510000000000005</v>
+      </c>
+      <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1.272</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>334</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <f t="shared" si="0"/>
         <v>294</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <f t="shared" si="1"/>
         <v>304</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2.47E-2</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="2">
         <f t="shared" si="2"/>
         <v>314</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1.24E-2</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <f t="shared" si="3"/>
         <v>324</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>4.2700000000000004E-3</v>
       </c>
-      <c r="O18" s="2">
+      <c r="P18" s="2">
         <f t="shared" si="4"/>
         <v>334</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>2.3E-3</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="R18" s="2">
         <f t="shared" si="5"/>
         <v>344</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>6.1599999999999997E-3</v>
       </c>
-      <c r="S18" s="2">
+      <c r="T18" s="2">
         <f t="shared" si="6"/>
         <v>354</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1.77E-2</v>
       </c>
-      <c r="U18" s="2">
+      <c r="V18" s="2">
         <f t="shared" si="7"/>
         <v>364</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="W18" s="2">
+      <c r="X18" s="2">
         <f t="shared" si="8"/>
         <v>374</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="AA18" s="2">
         <v>334.22446038178742</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>3.2299999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
       <c r="B19">
         <v>0.41</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>79.510000000000005</v>
+      </c>
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1.036</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>335</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <f t="shared" si="0"/>
         <v>295</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <f t="shared" si="1"/>
         <v>305</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>3.39E-2</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L19" s="2">
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="M19" s="2">
+      <c r="N19" s="2">
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="O19" s="2">
+      <c r="P19" s="2">
         <f t="shared" si="4"/>
         <v>335</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>2.9499999999999999E-3</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="R19" s="2">
         <f t="shared" si="5"/>
         <v>345</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1.1800000000000001E-3</v>
       </c>
-      <c r="S19" s="2">
+      <c r="T19" s="2">
         <f t="shared" si="6"/>
         <v>355</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>5.3E-3</v>
       </c>
-      <c r="U19" s="2">
+      <c r="V19" s="2">
         <f t="shared" si="7"/>
         <v>365</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="W19" s="2">
+      <c r="X19" s="2">
         <f t="shared" si="8"/>
         <v>375</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="AA19" s="2">
         <v>336.14800698539511</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>2.8900000000000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20">
         <v>0.82</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>153.87</v>
+      </c>
+      <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1.036</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>332</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <f t="shared" si="0"/>
         <v>292</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <f t="shared" si="1"/>
         <v>302</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="2">
         <f t="shared" si="2"/>
         <v>312</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>3.61E-2</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="2">
         <f t="shared" si="3"/>
         <v>322</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="O20" s="2">
+      <c r="P20" s="2">
         <f t="shared" si="4"/>
         <v>332</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>1.14E-2</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="R20" s="2">
         <f t="shared" si="5"/>
         <v>342</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>3.6900000000000001E-3</v>
       </c>
-      <c r="S20" s="2">
+      <c r="T20" s="2">
         <f t="shared" si="6"/>
         <v>352</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1.58E-3</v>
       </c>
-      <c r="U20" s="2">
+      <c r="V20" s="2">
         <f t="shared" si="7"/>
         <v>362</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>5.6299999999999996E-3</v>
       </c>
-      <c r="W20" s="2">
+      <c r="X20" s="2">
         <f t="shared" si="8"/>
         <v>372</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="AA20" s="2">
         <v>336.14800698539511</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>7.4799999999999997E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>0.82</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>153.87</v>
+      </c>
+      <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1.272</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>333</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <f t="shared" si="0"/>
         <v>293</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <f t="shared" si="1"/>
         <v>303</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>2.146E-2</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <f t="shared" si="2"/>
         <v>313</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="M21" s="2">
+      <c r="N21" s="2">
         <f t="shared" si="3"/>
         <v>323</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>3.7799999999999999E-3</v>
       </c>
-      <c r="O21" s="2">
+      <c r="P21" s="2">
         <f t="shared" si="4"/>
         <v>333</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>3.0899999999999999E-3</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="R21" s="2">
         <f t="shared" si="5"/>
         <v>343</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>8.6099999999999996E-3</v>
       </c>
-      <c r="S21" s="2">
+      <c r="T21" s="2">
         <f t="shared" si="6"/>
         <v>353</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="U21" s="2">
+      <c r="V21" s="2">
         <f t="shared" si="7"/>
         <v>363</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="W21" s="2">
+      <c r="X21" s="2">
         <f t="shared" si="8"/>
         <v>373</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="Z21" s="2">
+      <c r="AA21" s="2">
         <v>334.22446038178742</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <v>0.82</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>153.87</v>
+      </c>
+      <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>335</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <f t="shared" si="0"/>
         <v>295</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>4.99E-2</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <f t="shared" si="1"/>
         <v>305</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>3.61E-2</v>
       </c>
-      <c r="K22" s="2">
+      <c r="L22" s="2">
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>2.07E-2</v>
       </c>
-      <c r="M22" s="2">
+      <c r="N22" s="2">
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="O22" s="2">
+      <c r="P22" s="2">
         <f t="shared" si="4"/>
         <v>335</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>6.5900000000000004E-3</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="R22" s="2">
         <f t="shared" si="5"/>
         <v>345</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>9.9600000000000001E-3</v>
       </c>
-      <c r="S22" s="2">
+      <c r="T22" s="2">
         <f t="shared" si="6"/>
         <v>355</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.02</v>
       </c>
-      <c r="U22" s="2">
+      <c r="V22" s="2">
         <f t="shared" si="7"/>
         <v>365</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>3.49E-2</v>
       </c>
-      <c r="W22" s="2">
+      <c r="X22" s="2">
         <f t="shared" si="8"/>
         <v>375</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="AA22" s="2">
         <v>336.57688964029097</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>5.0200000000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23">
         <v>0.82</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>153.87</v>
+      </c>
+      <c r="D23" t="s">
         <v>2</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>331</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <f t="shared" si="0"/>
         <v>291</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>2.58E-2</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="2">
         <f t="shared" si="2"/>
         <v>311</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="M23" s="2">
+      <c r="N23" s="2">
         <f t="shared" si="3"/>
         <v>321</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>7.77E-3</v>
       </c>
-      <c r="O23" s="2">
+      <c r="P23" s="2">
         <f t="shared" si="4"/>
         <v>331</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>3.2100000000000002E-3</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="R23" s="2">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>3.1800000000000001E-3</v>
       </c>
-      <c r="S23" s="2">
+      <c r="T23" s="2">
         <f t="shared" si="6"/>
         <v>351</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>7.7200000000000003E-3</v>
       </c>
-      <c r="U23" s="2">
+      <c r="V23" s="2">
         <f t="shared" si="7"/>
         <v>361</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>1.6E-2</v>
       </c>
-      <c r="W23" s="2">
+      <c r="X23" s="2">
         <f t="shared" si="8"/>
         <v>371</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>2.64E-2</v>
       </c>
-      <c r="Z23" s="2">
+      <c r="AA23" s="2">
         <v>338.28784038282151</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>3.2799999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24">
         <v>0.82</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>153.87</v>
+      </c>
+      <c r="D24" t="s">
         <v>2</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1.272</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>337</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <f t="shared" si="1"/>
         <v>307</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1.6809999999999999E-2</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="2">
         <f t="shared" si="2"/>
         <v>317</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>7.77E-3</v>
       </c>
-      <c r="M24" s="2">
+      <c r="N24" s="2">
         <f t="shared" si="3"/>
         <v>327</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>2.3E-3</v>
       </c>
-      <c r="O24" s="2">
+      <c r="P24" s="2">
         <f t="shared" si="4"/>
         <v>337</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>1.4499999999999999E-3</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="R24" s="2">
         <f t="shared" si="5"/>
         <v>347</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>4.8799999999999998E-3</v>
       </c>
-      <c r="S24" s="2">
+      <c r="T24" s="2">
         <f t="shared" si="6"/>
         <v>357</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1.41E-2</v>
       </c>
-      <c r="U24" s="2">
+      <c r="V24" s="2">
         <f t="shared" si="7"/>
         <v>367</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="W24" s="2">
+      <c r="X24" s="2">
         <f t="shared" si="8"/>
         <v>377</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="AA24" s="2">
         <v>335.95791532802173</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20</v>
       </c>
       <c r="B25">
         <v>0.82</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25">
+        <v>153.87</v>
+      </c>
+      <c r="D25" t="s">
         <v>2</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1.036</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>340</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2.81E-2</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <f t="shared" si="1"/>
         <v>310</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="K25" s="2">
+      <c r="L25" s="2">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.01</v>
       </c>
-      <c r="M25" s="2">
+      <c r="N25" s="2">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>3.7200000000000002E-3</v>
       </c>
-      <c r="O25" s="2">
+      <c r="P25" s="2">
         <f t="shared" si="4"/>
         <v>340</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>9.990000000000001E-4</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="R25" s="2">
         <f t="shared" si="5"/>
         <v>350</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>1.8799999999999999E-3</v>
       </c>
-      <c r="S25" s="2">
+      <c r="T25" s="2">
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>6.5700000000000003E-3</v>
       </c>
-      <c r="U25" s="2">
+      <c r="V25" s="2">
         <f t="shared" si="7"/>
         <v>370</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>1.41E-2</v>
       </c>
-      <c r="W25" s="2">
+      <c r="X25" s="2">
         <f t="shared" si="8"/>
         <v>380</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>2.3E-2</v>
       </c>
-      <c r="Z25" s="2">
+      <c r="AA25" s="2">
         <v>335.2749258914456</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>3.4299999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26">
         <v>0.82</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>153.87</v>
+      </c>
+      <c r="D26" t="s">
         <v>7</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1.036</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>346</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <f t="shared" si="0"/>
         <v>306</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>4.3099999999999999E-2</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <f t="shared" si="1"/>
         <v>316</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L26" s="2">
         <f t="shared" si="2"/>
         <v>326</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1.3950000000000001E-2</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N26" s="2">
         <f t="shared" si="3"/>
         <v>336</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>4.1399999999999996E-3</v>
       </c>
-      <c r="O26" s="2">
+      <c r="P26" s="2">
         <f t="shared" si="4"/>
         <v>346</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1.14E-3</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="R26" s="2">
         <f t="shared" si="5"/>
         <v>356</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>6.0299999999999998E-3</v>
       </c>
-      <c r="S26" s="2">
+      <c r="T26" s="2">
         <f t="shared" si="6"/>
         <v>366</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1.66E-2</v>
       </c>
-      <c r="U26" s="2">
+      <c r="V26" s="2">
         <f t="shared" si="7"/>
         <v>376</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="W26" s="2">
+      <c r="X26" s="2">
         <f t="shared" si="8"/>
         <v>386</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>4.58E-2</v>
       </c>
-      <c r="Z26" s="2">
+      <c r="AA26" s="2">
         <v>335.69612906843872</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>4.2100000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20</v>
       </c>
       <c r="B27">
         <v>0.82</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <v>153.87</v>
+      </c>
+      <c r="D27" t="s">
         <v>7</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1.272</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>332</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <f t="shared" si="0"/>
         <v>292</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J27" s="2">
         <f t="shared" si="1"/>
         <v>302</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="K27" s="2">
+      <c r="L27" s="2">
         <f t="shared" si="2"/>
         <v>312</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="M27" s="2">
+      <c r="N27" s="2">
         <f t="shared" si="3"/>
         <v>322</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="O27" s="2">
+      <c r="P27" s="2">
         <f t="shared" si="4"/>
         <v>332</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>2.4399999999999999E-3</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="R27" s="2">
         <f t="shared" si="5"/>
         <v>342</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>6.8199999999999997E-3</v>
       </c>
-      <c r="S27" s="2">
+      <c r="T27" s="2">
         <f t="shared" si="6"/>
         <v>352</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="U27" s="2">
+      <c r="V27" s="2">
         <f t="shared" si="7"/>
         <v>362</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="W27" s="2">
+      <c r="X27" s="2">
         <f t="shared" si="8"/>
         <v>372</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="Z27" s="2">
+      <c r="AA27" s="2">
         <v>336.54722588931003</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>2.7299999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20</v>
       </c>
       <c r="B28">
         <v>0.82</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <v>153.87</v>
+      </c>
+      <c r="D28" t="s">
         <v>7</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>336</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <f t="shared" si="0"/>
         <v>296</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="K28" s="2">
+      <c r="L28" s="2">
         <f t="shared" si="2"/>
         <v>316</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>2.23E-2</v>
       </c>
-      <c r="M28" s="2">
+      <c r="N28" s="2">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>9.92E-3</v>
       </c>
-      <c r="O28" s="2">
+      <c r="P28" s="2">
         <f t="shared" si="4"/>
         <v>336</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>5.5399999999999998E-3</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="R28" s="2">
         <f t="shared" si="5"/>
         <v>346</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1.03E-2</v>
       </c>
-      <c r="S28" s="2">
+      <c r="T28" s="2">
         <f t="shared" si="6"/>
         <v>356</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>2.24E-2</v>
       </c>
-      <c r="U28" s="2">
+      <c r="V28" s="2">
         <f t="shared" si="7"/>
         <v>366</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="W28" s="2">
+      <c r="X28" s="2">
         <f t="shared" si="8"/>
         <v>376</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="Z28" s="2">
+      <c r="AA28" s="2">
         <v>336.13170163781399</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>3.15E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>30</v>
       </c>
       <c r="B29">
         <v>1.23</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>236.42</v>
+      </c>
+      <c r="D29" t="s">
         <v>7</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>338</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>3.4099999999999998E-2</v>
       </c>
-      <c r="K29" s="2">
+      <c r="L29" s="2">
         <f t="shared" si="2"/>
         <v>318</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1.84E-2</v>
       </c>
-      <c r="M29" s="2">
+      <c r="N29" s="2">
         <f t="shared" si="3"/>
         <v>328</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="O29" s="2">
+      <c r="P29" s="2">
         <f t="shared" si="4"/>
         <v>338</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>5.3299999999999997E-3</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="R29" s="2">
         <f t="shared" si="5"/>
         <v>348</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="S29" s="2">
+      <c r="T29" s="2">
         <f t="shared" si="6"/>
         <v>358</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>2.64E-2</v>
       </c>
-      <c r="U29" s="2">
+      <c r="V29" s="2">
         <f t="shared" si="7"/>
         <v>368</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="W29" s="2">
+      <c r="X29" s="2">
         <f t="shared" si="8"/>
         <v>378</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="Z29" s="2">
+      <c r="AA29" s="2">
         <v>336.13170163781399</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>3.7799999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
       <c r="B30">
         <v>1.23</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30">
+        <v>236.42</v>
+      </c>
+      <c r="D30" t="s">
         <v>7</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1.272</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>328</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <f t="shared" si="1"/>
         <v>298</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>3.85E-2</v>
       </c>
-      <c r="K30" s="2">
+      <c r="L30" s="2">
         <f t="shared" si="2"/>
         <v>308</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="M30" s="2">
+      <c r="N30" s="2">
         <f t="shared" si="3"/>
         <v>318</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>8.8699999999999994E-3</v>
       </c>
-      <c r="O30" s="2">
+      <c r="P30" s="2">
         <f t="shared" si="4"/>
         <v>328</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>2.7799999999999999E-3</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="R30" s="2">
         <f t="shared" si="5"/>
         <v>338</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>5.5500000000000002E-3</v>
       </c>
-      <c r="S30" s="2">
+      <c r="T30" s="2">
         <f t="shared" si="6"/>
         <v>348</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="U30" s="2">
+      <c r="V30" s="2">
         <f t="shared" si="7"/>
         <v>358</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="W30" s="2">
+      <c r="X30" s="2">
         <f t="shared" si="8"/>
         <v>368</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>4.7300000000000002E-2</v>
       </c>
-      <c r="Z30" s="2">
+      <c r="AA30" s="2">
         <v>336.54722588931003</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>3.49E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>1.23</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31">
+        <v>236.42</v>
+      </c>
+      <c r="D31" t="s">
         <v>7</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1.036</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>350</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>4.3099999999999999E-2</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J31" s="2">
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>2.8500000000000001E-2</v>
       </c>
-      <c r="K31" s="2">
+      <c r="L31" s="2">
         <f t="shared" si="2"/>
         <v>330</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1.4460000000000001E-2</v>
       </c>
-      <c r="M31" s="2">
+      <c r="N31" s="2">
         <f t="shared" si="3"/>
         <v>340</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="O31" s="2">
+      <c r="P31" s="2">
         <f t="shared" si="4"/>
         <v>350</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>1.4469999999999999E-3</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="R31" s="2">
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>5.4799999999999996E-3</v>
       </c>
-      <c r="S31" s="2">
+      <c r="T31" s="2">
         <f t="shared" si="6"/>
         <v>370</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1.61E-2</v>
       </c>
-      <c r="U31" s="2">
+      <c r="V31" s="2">
         <f t="shared" si="7"/>
         <v>380</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="W31" s="2">
+      <c r="X31" s="2">
         <f t="shared" si="8"/>
         <v>390</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="Z31" s="2">
+      <c r="AA31" s="2">
         <v>335.69612906843872</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>6.5799999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <v>1.23</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32">
+        <v>236.42</v>
+      </c>
+      <c r="D32" t="s">
         <v>2</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1.036</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>347</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <f t="shared" si="0"/>
         <v>307</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J32" s="2">
         <f t="shared" si="1"/>
         <v>317</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="K32" s="2">
+      <c r="L32" s="2">
         <f t="shared" si="2"/>
         <v>327</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>8.8800000000000007E-3</v>
       </c>
-      <c r="M32" s="2">
+      <c r="N32" s="2">
         <f t="shared" si="3"/>
         <v>337</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="O32" s="2">
+      <c r="P32" s="2">
         <f t="shared" si="4"/>
         <v>347</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="R32" s="2">
         <f t="shared" si="5"/>
         <v>357</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>4.3800000000000002E-3</v>
       </c>
-      <c r="S32" s="2">
+      <c r="T32" s="2">
         <f t="shared" si="6"/>
         <v>367</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>1.264E-2</v>
       </c>
-      <c r="U32" s="2">
+      <c r="V32" s="2">
         <f t="shared" si="7"/>
         <v>377</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>2.29E-2</v>
       </c>
-      <c r="W32" s="2">
+      <c r="X32" s="2">
         <f t="shared" si="8"/>
         <v>387</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="Z32" s="2">
+      <c r="AA32" s="2">
         <v>335.2749258914456</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>2.99E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33">
         <v>1.23</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33">
+        <v>236.42</v>
+      </c>
+      <c r="D33" t="s">
         <v>2</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>336</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <f t="shared" si="0"/>
         <v>296</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="I33" s="2">
+      <c r="J33" s="2">
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>2.53E-2</v>
       </c>
-      <c r="K33" s="2">
+      <c r="L33" s="2">
         <f t="shared" si="2"/>
         <v>316</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>1.34E-2</v>
       </c>
-      <c r="M33" s="2">
+      <c r="N33" s="2">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>5.5199999999999997E-3</v>
       </c>
-      <c r="O33" s="2">
+      <c r="P33" s="2">
         <f t="shared" si="4"/>
         <v>336</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>2.8300000000000001E-3</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="R33" s="2">
         <f t="shared" si="5"/>
         <v>346</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>6.8399999999999997E-3</v>
       </c>
-      <c r="S33" s="2">
+      <c r="T33" s="2">
         <f t="shared" si="6"/>
         <v>356</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="U33" s="2">
+      <c r="V33" s="2">
         <f t="shared" si="7"/>
         <v>366</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="W33" s="2">
+      <c r="X33" s="2">
         <f t="shared" si="8"/>
         <v>376</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="Z33" s="2">
+      <c r="AA33" s="2">
         <v>338.28784038282151</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="B34">
         <v>1.23</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34">
+        <v>236.42</v>
+      </c>
+      <c r="D34" t="s">
         <v>2</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1.272</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>333</v>
       </c>
-      <c r="G34" s="1">
-        <f>E34-40</f>
+      <c r="H34" s="1">
+        <f>F34-40</f>
         <v>293</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="I34" s="2">
+      <c r="J34" s="2">
         <f t="shared" si="1"/>
         <v>303</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="K34" s="2">
+      <c r="L34" s="2">
         <f t="shared" si="2"/>
         <v>313</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="M34" s="2">
+      <c r="N34" s="2">
         <f t="shared" si="3"/>
         <v>323</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>4.0600000000000002E-3</v>
       </c>
-      <c r="O34" s="2">
+      <c r="P34" s="2">
         <f t="shared" si="4"/>
         <v>333</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>1.4710000000000001E-3</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="R34" s="2">
         <f t="shared" si="5"/>
         <v>343</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>5.5500000000000002E-3</v>
       </c>
-      <c r="S34" s="2">
+      <c r="T34" s="2">
         <f t="shared" si="6"/>
         <v>353</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>1.43E-2</v>
       </c>
-      <c r="U34" s="2">
+      <c r="V34" s="2">
         <f t="shared" si="7"/>
         <v>363</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="W34" s="2">
+      <c r="X34" s="2">
         <f t="shared" si="8"/>
         <v>373</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="Z34" s="2">
+      <c r="AA34" s="2">
         <v>335.95791532802173</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>1.31E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>30</v>
       </c>
       <c r="B35">
         <v>1.23</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35">
+        <v>236.42</v>
+      </c>
+      <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>337</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>4.58E-2</v>
       </c>
-      <c r="I35" s="2">
+      <c r="J35" s="2">
         <f t="shared" si="1"/>
         <v>307</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>3.1119999999999998E-2</v>
       </c>
-      <c r="K35" s="2">
+      <c r="L35" s="2">
         <f t="shared" si="2"/>
         <v>317</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>1.72E-2</v>
       </c>
-      <c r="M35" s="2">
+      <c r="N35" s="2">
         <f t="shared" si="3"/>
         <v>327</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>8.4399999999999996E-3</v>
       </c>
-      <c r="O35" s="2">
+      <c r="P35" s="2">
         <f t="shared" si="4"/>
         <v>337</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="R35" s="2">
         <f t="shared" si="5"/>
         <v>347</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>1.35E-2</v>
       </c>
-      <c r="S35" s="2">
+      <c r="T35" s="2">
         <f t="shared" si="6"/>
         <v>357</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>2.58E-2</v>
       </c>
-      <c r="U35" s="2">
+      <c r="V35" s="2">
         <f t="shared" si="7"/>
         <v>367</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>4.07E-2</v>
       </c>
-      <c r="W35" s="2">
+      <c r="X35" s="2">
         <f t="shared" si="8"/>
         <v>377</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="Z35" s="2">
+      <c r="AA35" s="2">
         <v>336.57688964029097</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>4.9199999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>30</v>
       </c>
       <c r="B36">
         <v>1.23</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36">
+        <v>236.42</v>
+      </c>
+      <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1.272</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>322</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <f t="shared" si="0"/>
         <v>282</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>4.7100000000000003E-2</v>
       </c>
-      <c r="I36" s="2">
+      <c r="J36" s="2">
         <f t="shared" si="1"/>
         <v>292</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="K36" s="2">
+      <c r="L36" s="2">
         <f t="shared" si="2"/>
         <v>302</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="M36" s="2">
+      <c r="N36" s="2">
         <f t="shared" si="3"/>
         <v>312</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>9.5399999999999999E-3</v>
       </c>
-      <c r="O36" s="2">
+      <c r="P36" s="2">
         <f t="shared" si="4"/>
         <v>322</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>3.8E-3</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="R36" s="2">
         <f t="shared" si="5"/>
         <v>332</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>4.8799999999999998E-3</v>
       </c>
-      <c r="S36" s="2">
+      <c r="T36" s="2">
         <f t="shared" si="6"/>
         <v>342</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="U36" s="2">
+      <c r="V36" s="2">
         <f t="shared" si="7"/>
         <v>352</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>2.3699999999999999E-2</v>
       </c>
-      <c r="W36" s="2">
+      <c r="X36" s="2">
         <f t="shared" si="8"/>
         <v>362</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="Z36" s="2">
+      <c r="AA36" s="2">
         <v>334.22446038178742</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>4.4400000000000004E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>30</v>
       </c>
       <c r="B37">
         <v>1.23</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37">
+        <v>236.42</v>
+      </c>
+      <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1.036</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>358</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="I37" s="2">
+      <c r="J37" s="2">
         <f t="shared" si="1"/>
         <v>328</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="K37" s="2">
+      <c r="L37" s="2">
         <f t="shared" si="2"/>
         <v>338</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>1.21E-2</v>
       </c>
-      <c r="M37" s="2">
+      <c r="N37" s="2">
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>3.7699999999999999E-3</v>
       </c>
-      <c r="O37" s="2">
+      <c r="P37" s="2">
         <f t="shared" si="4"/>
         <v>358</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>1.2099999999999999E-3</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="R37" s="2">
         <f t="shared" si="5"/>
         <v>368</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>4.45E-3</v>
       </c>
-      <c r="S37" s="2">
+      <c r="T37" s="2">
         <f t="shared" si="6"/>
         <v>378</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="U37" s="2">
+      <c r="V37" s="2">
         <f t="shared" si="7"/>
         <v>388</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="W37" s="2">
+      <c r="X37" s="2">
         <f t="shared" si="8"/>
         <v>398</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="Z37" s="2">
+      <c r="AA37" s="2">
         <v>336.14800698539511</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>-10</v>
       </c>
       <c r="B38">
         <v>-0.41</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38">
+        <v>-77.34</v>
+      </c>
+      <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>337</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>5.04E-2</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <f t="shared" si="1"/>
         <v>307</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <f t="shared" si="2"/>
         <v>317</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>1.67E-2</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <f t="shared" si="3"/>
         <v>327</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>5.3299999999999997E-3</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <f t="shared" si="4"/>
         <v>337</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>2.3500000000000001E-3</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <f t="shared" si="5"/>
         <v>347</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>8.8900000000000003E-3</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <f t="shared" si="6"/>
         <v>357</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <f t="shared" si="7"/>
         <v>367</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>4.02E-2</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <f t="shared" si="8"/>
         <v>377</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>336.57688964029097</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>4.9399999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>-10</v>
       </c>
       <c r="B39">
         <v>-0.41</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39">
+        <v>-77.34</v>
+      </c>
+      <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1.272</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>340</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="I39" s="2">
+      <c r="J39" s="2">
         <f t="shared" si="1"/>
         <v>310</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>2.75E-2</v>
       </c>
-      <c r="K39" s="2">
+      <c r="L39" s="2">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M39" s="2">
+      <c r="N39" s="2">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="O39" s="2">
+      <c r="P39" s="2">
         <f t="shared" si="4"/>
         <v>340</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>4.1399999999999996E-3</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="R39" s="2">
         <f t="shared" si="5"/>
         <v>350</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>8.8199999999999997E-3</v>
       </c>
-      <c r="S39" s="2">
+      <c r="T39" s="2">
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>1.84E-2</v>
       </c>
-      <c r="U39" s="2">
+      <c r="V39" s="2">
         <f t="shared" si="7"/>
         <v>370</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="W39" s="2">
+      <c r="X39" s="2">
         <f t="shared" si="8"/>
         <v>380</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="Z39" s="2">
+      <c r="AA39" s="2">
         <v>334.22446038178742</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>3.4299999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>-10</v>
       </c>
       <c r="B40">
         <v>-0.41</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40">
+        <v>-77.34</v>
+      </c>
+      <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>1.036</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>334</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <f t="shared" si="0"/>
         <v>294</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="I40" s="2">
+      <c r="J40" s="2">
         <f t="shared" si="1"/>
         <v>304</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="K40" s="2">
+      <c r="L40" s="2">
         <f t="shared" si="2"/>
         <v>314</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>7.7499999999999999E-3</v>
       </c>
-      <c r="M40" s="2">
+      <c r="N40" s="2">
         <f t="shared" si="3"/>
         <v>324</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="O40" s="2">
+      <c r="P40" s="2">
         <f t="shared" si="4"/>
         <v>334</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>1.89E-3</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="R40" s="2">
         <f t="shared" si="5"/>
         <v>344</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>8.2400000000000008E-3</v>
       </c>
-      <c r="S40" s="2">
+      <c r="T40" s="2">
         <f t="shared" si="6"/>
         <v>354</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="U40" s="2">
+      <c r="V40" s="2">
         <f t="shared" si="7"/>
         <v>364</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="W40" s="2">
+      <c r="X40" s="2">
         <f t="shared" si="8"/>
         <v>374</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="Z40" s="2">
+      <c r="AA40" s="2">
         <v>336.14800698539511</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>2.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>-10</v>
       </c>
       <c r="B41">
         <v>-0.41</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41">
+        <v>-77.34</v>
+      </c>
+      <c r="D41" t="s">
         <v>7</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>1.036</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>331</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <f t="shared" si="0"/>
         <v>291</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="2">
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>2.46E-2</v>
       </c>
-      <c r="K41" s="2">
+      <c r="L41" s="2">
         <f t="shared" si="2"/>
         <v>311</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>1.34E-2</v>
       </c>
-      <c r="M41" s="2">
+      <c r="N41" s="2">
         <f t="shared" si="3"/>
         <v>321</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>5.7200000000000003E-3</v>
       </c>
-      <c r="O41" s="2">
+      <c r="P41" s="2">
         <f t="shared" si="4"/>
         <v>331</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>1.1199999999999999E-3</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="R41" s="2">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>3.96E-3</v>
       </c>
-      <c r="S41" s="2">
+      <c r="T41" s="2">
         <f t="shared" si="6"/>
         <v>351</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="U41" s="2">
+      <c r="V41" s="2">
         <f t="shared" si="7"/>
         <v>361</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="W41" s="2">
+      <c r="X41" s="2">
         <f t="shared" si="8"/>
         <v>371</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="Z41" s="2">
+      <c r="AA41" s="2">
         <v>335.69612906843872</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>1.89E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>-10</v>
       </c>
       <c r="B42">
         <v>-0.41</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42">
+        <v>-77.34</v>
+      </c>
+      <c r="D42" t="s">
         <v>7</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>338</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="I42" s="2">
+      <c r="J42" s="2">
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="K42" s="2">
+      <c r="L42" s="2">
         <f t="shared" si="2"/>
         <v>318</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="M42" s="2">
+      <c r="N42" s="2">
         <f t="shared" si="3"/>
         <v>328</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>5.9500000000000004E-3</v>
       </c>
-      <c r="O42" s="2">
+      <c r="P42" s="2">
         <f t="shared" si="4"/>
         <v>338</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>3.5599999999999998E-3</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="R42" s="2">
         <f t="shared" si="5"/>
         <v>348</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="S42" s="2">
+      <c r="T42" s="2">
         <f t="shared" si="6"/>
         <v>358</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>2.35E-2</v>
       </c>
-      <c r="U42" s="2">
+      <c r="V42" s="2">
         <f t="shared" si="7"/>
         <v>368</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>3.95E-2</v>
       </c>
-      <c r="W42" s="2">
+      <c r="X42" s="2">
         <f t="shared" si="8"/>
         <v>378</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="Z42" s="2">
+      <c r="AA42" s="2">
         <v>336.13170163781399</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>4.5199999999999997E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>-10</v>
       </c>
       <c r="B43">
         <v>-0.41</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43">
+        <v>-77.34</v>
+      </c>
+      <c r="D43" t="s">
         <v>7</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>1.272</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>338</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>4.6100000000000002E-2</v>
       </c>
-      <c r="I43" s="2">
+      <c r="J43" s="2">
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="K43" s="2">
+      <c r="L43" s="2">
         <f t="shared" si="2"/>
         <v>318</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="M43" s="2">
+      <c r="N43" s="2">
         <f t="shared" si="3"/>
         <v>328</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>5.5100000000000001E-3</v>
       </c>
-      <c r="O43" s="2">
+      <c r="P43" s="2">
         <f t="shared" si="4"/>
         <v>338</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>1.1800000000000001E-3</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="R43" s="2">
         <f t="shared" si="5"/>
         <v>348</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>6.2399999999999999E-3</v>
       </c>
-      <c r="S43" s="2">
+      <c r="T43" s="2">
         <f t="shared" si="6"/>
         <v>358</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>1.77E-2</v>
       </c>
-      <c r="U43" s="2">
+      <c r="V43" s="2">
         <f t="shared" si="7"/>
         <v>368</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="W43" s="2">
+      <c r="X43" s="2">
         <f t="shared" si="8"/>
         <v>378</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="Z43" s="2">
+      <c r="AA43" s="2">
         <v>336.54722588931003</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>2.5799999999999998E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>-10</v>
       </c>
       <c r="B44">
         <v>-0.41</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44">
+        <v>-77.34</v>
+      </c>
+      <c r="D44" t="s">
         <v>2</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>1.272</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>338</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="I44" s="2">
+      <c r="J44" s="2">
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="K44" s="2">
+      <c r="L44" s="2">
         <f t="shared" si="2"/>
         <v>318</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>9.0299999999999998E-3</v>
       </c>
-      <c r="M44" s="2">
+      <c r="N44" s="2">
         <f t="shared" si="3"/>
         <v>328</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>3.0899999999999999E-3</v>
       </c>
-      <c r="O44" s="2">
+      <c r="P44" s="2">
         <f t="shared" si="4"/>
         <v>338</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>1.33E-3</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="R44" s="2">
         <f t="shared" si="5"/>
         <v>348</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>3.7399999999999998E-3</v>
       </c>
-      <c r="S44" s="2">
+      <c r="T44" s="2">
         <f t="shared" si="6"/>
         <v>358</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>0.01</v>
       </c>
-      <c r="U44" s="2">
+      <c r="V44" s="2">
         <f t="shared" si="7"/>
         <v>368</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="W44" s="2">
+      <c r="X44" s="2">
         <f t="shared" si="8"/>
         <v>378</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>0.03</v>
       </c>
-      <c r="Z44" s="2">
+      <c r="AA44" s="2">
         <v>335.95791532802173</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>1.16E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>-10</v>
       </c>
       <c r="B45">
         <v>-0.41</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45">
+        <v>-77.34</v>
+      </c>
+      <c r="D45" t="s">
         <v>2</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>331</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <f t="shared" si="0"/>
         <v>291</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="I45" s="2">
+      <c r="J45" s="2">
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>2.35E-2</v>
       </c>
-      <c r="K45" s="2">
+      <c r="L45" s="2">
         <f t="shared" si="2"/>
         <v>311</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>1.4E-2</v>
       </c>
-      <c r="M45" s="2">
+      <c r="N45" s="2">
         <f t="shared" si="3"/>
         <v>321</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>6.4599999999999996E-3</v>
       </c>
-      <c r="O45" s="2">
+      <c r="P45" s="2">
         <f t="shared" si="4"/>
         <v>331</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>2.3800000000000002E-3</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="R45" s="2">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>2.5500000000000002E-3</v>
       </c>
-      <c r="S45" s="2">
+      <c r="T45" s="2">
         <f t="shared" si="6"/>
         <v>351</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>6.3800000000000003E-3</v>
       </c>
-      <c r="U45" s="2">
+      <c r="V45" s="2">
         <f t="shared" si="7"/>
         <v>361</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>1.46E-2</v>
       </c>
-      <c r="W45" s="2">
+      <c r="X45" s="2">
         <f t="shared" si="8"/>
         <v>371</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="Z45" s="2">
+      <c r="AA45" s="2">
         <v>338.28784038282151</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>1.57E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>-10</v>
       </c>
       <c r="B46">
         <v>-0.41</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46">
+        <v>-77.34</v>
+      </c>
+      <c r="D46" t="s">
         <v>2</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>1.036</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>332</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <f t="shared" si="0"/>
         <v>292</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="I46" s="2">
+      <c r="J46" s="2">
         <f t="shared" si="1"/>
         <v>302</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>1.49E-2</v>
       </c>
-      <c r="K46" s="2">
+      <c r="L46" s="2">
         <f t="shared" si="2"/>
         <v>312</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>7.9399999999999991E-3</v>
       </c>
-      <c r="M46" s="2">
+      <c r="N46" s="2">
         <f t="shared" si="3"/>
         <v>322</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>2.7499999999999998E-3</v>
       </c>
-      <c r="O46" s="2">
+      <c r="P46" s="2">
         <f t="shared" si="4"/>
         <v>332</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>6.79E-3</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="R46" s="2">
         <f t="shared" si="5"/>
         <v>342</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>1.98E-3</v>
       </c>
-      <c r="S46" s="2">
+      <c r="T46" s="2">
         <f t="shared" si="6"/>
         <v>352</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>6.2700000000000004E-3</v>
       </c>
-      <c r="U46" s="2">
+      <c r="V46" s="2">
         <f t="shared" si="7"/>
         <v>362</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="W46" s="2">
+      <c r="X46" s="2">
         <f t="shared" si="8"/>
         <v>372</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="Z46" s="2">
+      <c r="AA46" s="2">
         <v>335.2749258914456</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>6.9499999999999998E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>-20</v>
       </c>
       <c r="B47">
         <v>-0.81</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47">
+        <v>-157.94</v>
+      </c>
+      <c r="D47" t="s">
         <v>2</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>1.036</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>330</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="I47" s="2">
+      <c r="J47" s="2">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="K47" s="2">
+      <c r="L47" s="2">
         <f t="shared" si="2"/>
         <v>310</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="M47" s="2">
+      <c r="N47" s="2">
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>2.5200000000000001E-3</v>
       </c>
-      <c r="O47" s="2">
+      <c r="P47" s="2">
         <f t="shared" si="4"/>
         <v>330</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>7.7700000000000002E-4</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="R47" s="2">
         <f t="shared" si="5"/>
         <v>340</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>2.4199999999999998E-3</v>
       </c>
-      <c r="S47" s="2">
+      <c r="T47" s="2">
         <f t="shared" si="6"/>
         <v>350</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>7.0699999999999999E-3</v>
       </c>
-      <c r="U47" s="2">
+      <c r="V47" s="2">
         <f t="shared" si="7"/>
         <v>360</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="W47" s="2">
+      <c r="X47" s="2">
         <f t="shared" si="8"/>
         <v>370</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>2.24E-2</v>
       </c>
-      <c r="Z47" s="2">
+      <c r="AA47" s="2">
         <v>335.2749258914456</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>-20</v>
       </c>
       <c r="B48">
         <v>-0.81</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48">
+        <v>-157.94</v>
+      </c>
+      <c r="D48" t="s">
         <v>2</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>336</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <f t="shared" si="0"/>
         <v>296</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="I48" s="2">
+      <c r="J48" s="2">
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="K48" s="2">
+      <c r="L48" s="2">
         <f t="shared" si="2"/>
         <v>316</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="M48" s="2">
+      <c r="N48" s="2">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>4.4400000000000004E-3</v>
       </c>
-      <c r="O48" s="2">
+      <c r="P48" s="2">
         <f t="shared" si="4"/>
         <v>336</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>2.1700000000000001E-3</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="R48" s="2">
         <f t="shared" si="5"/>
         <v>346</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>4.13E-3</v>
       </c>
-      <c r="S48" s="2">
+      <c r="T48" s="2">
         <f t="shared" si="6"/>
         <v>356</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>1.01E-2</v>
       </c>
-      <c r="U48" s="2">
+      <c r="V48" s="2">
         <f t="shared" si="7"/>
         <v>366</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>1.89E-2</v>
       </c>
-      <c r="W48" s="2">
+      <c r="X48" s="2">
         <f t="shared" si="8"/>
         <v>376</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>2.92E-2</v>
       </c>
-      <c r="Z48" s="2">
+      <c r="AA48" s="2">
         <v>338.28784038282151</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>9.9200000000000004E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>-20</v>
       </c>
       <c r="B49">
         <v>-0.81</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49">
+        <v>-157.94</v>
+      </c>
+      <c r="D49" t="s">
         <v>2</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>1.272</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>339</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <f t="shared" si="0"/>
         <v>299</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>0.03</v>
       </c>
-      <c r="I49" s="2">
+      <c r="J49" s="2">
         <f t="shared" si="1"/>
         <v>309</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>1.95E-2</v>
       </c>
-      <c r="K49" s="2">
+      <c r="L49" s="2">
         <f t="shared" si="2"/>
         <v>319</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>9.5200000000000007E-3</v>
       </c>
-      <c r="M49" s="2">
+      <c r="N49" s="2">
         <f t="shared" si="3"/>
         <v>329</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>3.4299999999999999E-3</v>
       </c>
-      <c r="O49" s="2">
+      <c r="P49" s="2">
         <f t="shared" si="4"/>
         <v>339</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="R49" s="2">
         <f t="shared" si="5"/>
         <v>349</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="S49" s="2">
+      <c r="T49" s="2">
         <f t="shared" si="6"/>
         <v>359</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>1.01E-2</v>
       </c>
-      <c r="U49" s="2">
+      <c r="V49" s="2">
         <f t="shared" si="7"/>
         <v>369</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="W49" s="2">
+      <c r="X49" s="2">
         <f t="shared" si="8"/>
         <v>379</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="Z49" s="2">
+      <c r="AA49" s="2">
         <v>335.95791532802173</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>1.3600000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>-20</v>
       </c>
       <c r="B50">
         <v>-0.81</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50">
+        <v>-157.94</v>
+      </c>
+      <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>337</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="I50" s="2">
+      <c r="J50" s="2">
         <f t="shared" si="1"/>
         <v>307</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="K50" s="2">
+      <c r="L50" s="2">
         <f t="shared" si="2"/>
         <v>317</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>1.61E-2</v>
       </c>
-      <c r="M50" s="2">
+      <c r="N50" s="2">
         <f t="shared" si="3"/>
         <v>327</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>7.4799999999999997E-3</v>
       </c>
-      <c r="O50" s="2">
+      <c r="P50" s="2">
         <f t="shared" si="4"/>
         <v>337</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>4.9899999999999996E-3</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="R50" s="2">
         <f t="shared" si="5"/>
         <v>347</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>9.3200000000000002E-3</v>
       </c>
-      <c r="S50" s="2">
+      <c r="T50" s="2">
         <f t="shared" si="6"/>
         <v>357</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>1.95E-2</v>
       </c>
-      <c r="U50" s="2">
+      <c r="V50" s="2">
         <f t="shared" si="7"/>
         <v>367</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="W50" s="2">
+      <c r="X50" s="2">
         <f t="shared" si="8"/>
         <v>377</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="Z50" s="2">
+      <c r="AA50" s="2">
         <v>336.57688964029097</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>8.8199999999999997E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>-20</v>
       </c>
       <c r="B51">
         <v>-0.81</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51">
+        <v>-157.94</v>
+      </c>
+      <c r="D51" t="s">
         <v>6</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>1.272</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>344</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <f t="shared" si="0"/>
         <v>304</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>3.6900000000000002E-2</v>
       </c>
-      <c r="I51" s="2">
+      <c r="J51" s="2">
         <f t="shared" si="1"/>
         <v>314</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="K51" s="2">
+      <c r="L51" s="2">
         <f t="shared" si="2"/>
         <v>324</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>1.23E-2</v>
       </c>
-      <c r="M51" s="2">
+      <c r="N51" s="2">
         <f t="shared" si="3"/>
         <v>334</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>4.9500000000000004E-3</v>
       </c>
-      <c r="O51" s="2">
+      <c r="P51" s="2">
         <f t="shared" si="4"/>
         <v>344</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>3.47E-3</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="R51" s="2">
         <f t="shared" si="5"/>
         <v>354</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>7.7200000000000003E-3</v>
       </c>
-      <c r="S51" s="2">
+      <c r="T51" s="2">
         <f t="shared" si="6"/>
         <v>364</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="U51" s="2">
+      <c r="V51" s="2">
         <f t="shared" si="7"/>
         <v>374</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>2.9700000000000001E-2</v>
       </c>
-      <c r="W51" s="2">
+      <c r="X51" s="2">
         <f t="shared" si="8"/>
         <v>384</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="Z51" s="2">
+      <c r="AA51" s="2">
         <v>334.22446038178742</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>8.09E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>-20</v>
       </c>
       <c r="B52">
         <v>-0.81</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52">
+        <v>-157.94</v>
+      </c>
+      <c r="D52" t="s">
         <v>6</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>1.036</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>320</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="I52" s="2">
+      <c r="J52" s="2">
         <f t="shared" si="1"/>
         <v>290</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>2.58E-2</v>
       </c>
-      <c r="K52" s="2">
+      <c r="L52" s="2">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>1.44E-2</v>
       </c>
-      <c r="M52" s="2">
+      <c r="N52" s="2">
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>6.0699999999999999E-3</v>
       </c>
-      <c r="O52" s="2">
+      <c r="P52" s="2">
         <f t="shared" si="4"/>
         <v>320</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>2.14E-3</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="R52" s="2">
         <f t="shared" si="5"/>
         <v>330</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>4.0699999999999998E-3</v>
       </c>
-      <c r="S52" s="2">
+      <c r="T52" s="2">
         <f t="shared" si="6"/>
         <v>340</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="U52" s="2">
+      <c r="V52" s="2">
         <f t="shared" si="7"/>
         <v>350</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="W52" s="2">
+      <c r="X52" s="2">
         <f t="shared" si="8"/>
         <v>360</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Z52" s="2">
+      <c r="AA52" s="2">
         <v>336.14800698539511</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>9.6500000000000006E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>-20</v>
       </c>
       <c r="B53">
         <v>-0.81</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53">
+        <v>-157.94</v>
+      </c>
+      <c r="D53" t="s">
         <v>7</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>1.036</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>326</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <f t="shared" si="0"/>
         <v>286</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>4.6100000000000002E-2</v>
       </c>
-      <c r="I53" s="2">
+      <c r="J53" s="2">
         <f t="shared" si="1"/>
         <v>296</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="K53" s="2">
+      <c r="L53" s="2">
         <f t="shared" si="2"/>
         <v>306</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>1.72E-2</v>
       </c>
-      <c r="M53" s="2">
+      <c r="N53" s="2">
         <f t="shared" si="3"/>
         <v>316</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>6.5700000000000003E-3</v>
       </c>
-      <c r="O53" s="2">
+      <c r="P53" s="2">
         <f t="shared" si="4"/>
         <v>326</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>2.0200000000000001E-3</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="R53" s="2">
         <f t="shared" si="5"/>
         <v>336</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>5.1500000000000001E-3</v>
       </c>
-      <c r="S53" s="2">
+      <c r="T53" s="2">
         <f t="shared" si="6"/>
         <v>346</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="U53" s="2">
+      <c r="V53" s="2">
         <f t="shared" si="7"/>
         <v>356</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="W53" s="2">
+      <c r="X53" s="2">
         <f t="shared" si="8"/>
         <v>366</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>4.2799999999999998E-2</v>
       </c>
-      <c r="Z53" s="2">
+      <c r="AA53" s="2">
         <v>335.69612906843872</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <v>3.79E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>-20</v>
       </c>
       <c r="B54">
         <v>-0.81</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54">
+        <v>-157.94</v>
+      </c>
+      <c r="D54" t="s">
         <v>7</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>339</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <f t="shared" si="0"/>
         <v>299</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="I54" s="2">
+      <c r="J54" s="2">
         <f t="shared" si="1"/>
         <v>309</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K54" s="2">
+      <c r="L54" s="2">
         <f t="shared" si="2"/>
         <v>319</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="M54" s="2">
+      <c r="N54" s="2">
         <f t="shared" si="3"/>
         <v>329</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>4.8300000000000001E-3</v>
       </c>
-      <c r="O54" s="2">
+      <c r="P54" s="2">
         <f t="shared" si="4"/>
         <v>339</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>2.47E-3</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="R54" s="2">
         <f t="shared" si="5"/>
         <v>349</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>9.7099999999999999E-3</v>
       </c>
-      <c r="S54" s="2">
+      <c r="T54" s="2">
         <f t="shared" si="6"/>
         <v>359</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>2.5899999999999999E-2</v>
       </c>
-      <c r="U54" s="2">
+      <c r="V54" s="2">
         <f t="shared" si="7"/>
         <v>369</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="W54" s="2">
+      <c r="X54" s="2">
         <f t="shared" si="8"/>
         <v>379</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="Z54" s="2">
+      <c r="AA54" s="2">
         <v>336.13170163781399</v>
       </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>4.5300000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>-20</v>
       </c>
       <c r="B55">
         <v>-0.81</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55">
+        <v>-157.94</v>
+      </c>
+      <c r="D55" t="s">
         <v>7</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>1.272</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>341</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <f t="shared" si="0"/>
         <v>301</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>5.3100000000000001E-2</v>
       </c>
-      <c r="I55" s="2">
+      <c r="J55" s="2">
         <f t="shared" si="1"/>
         <v>311</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="K55" s="2">
+      <c r="L55" s="2">
         <f t="shared" si="2"/>
         <v>321</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="M55" s="2">
+      <c r="N55" s="2">
         <f t="shared" si="3"/>
         <v>331</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>7.2899999999999996E-3</v>
       </c>
-      <c r="O55" s="2">
+      <c r="P55" s="2">
         <f t="shared" si="4"/>
         <v>341</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>2.9199999999999999E-3</v>
       </c>
-      <c r="Q55" s="2">
+      <c r="R55" s="2">
         <f t="shared" si="5"/>
         <v>351</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>8.1899999999999994E-3</v>
       </c>
-      <c r="S55" s="2">
+      <c r="T55" s="2">
         <f t="shared" si="6"/>
         <v>361</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="U55" s="2">
+      <c r="V55" s="2">
         <f t="shared" si="7"/>
         <v>371</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="W55" s="2">
+      <c r="X55" s="2">
         <f t="shared" si="8"/>
         <v>381</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="Z55" s="2">
+      <c r="AA55" s="2">
         <v>336.54722588931003</v>
       </c>
-      <c r="AA55">
+      <c r="AB55">
         <v>2.5400000000000002E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>-30</v>
       </c>
       <c r="B56">
         <v>-1.22</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56">
+        <v>-230.54</v>
+      </c>
+      <c r="D56" t="s">
         <v>7</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>337</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="I56" s="2">
+      <c r="J56" s="2">
         <f t="shared" si="1"/>
         <v>307</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>3.78E-2</v>
       </c>
-      <c r="K56" s="2">
+      <c r="L56" s="2">
         <f t="shared" si="2"/>
         <v>317</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="M56" s="2">
+      <c r="N56" s="2">
         <f t="shared" si="3"/>
         <v>327</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>8.3199999999999993E-3</v>
       </c>
-      <c r="O56" s="2">
+      <c r="P56" s="2">
         <f t="shared" si="4"/>
         <v>337</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>3.8400000000000001E-3</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="R56" s="2">
         <f t="shared" si="5"/>
         <v>347</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="S56" s="2">
+      <c r="T56" s="2">
         <f t="shared" si="6"/>
         <v>357</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="U56" s="2">
+      <c r="V56" s="2">
         <f t="shared" si="7"/>
         <v>367</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="W56" s="2">
+      <c r="X56" s="2">
         <f t="shared" si="8"/>
         <v>377</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>5.62E-2</v>
       </c>
-      <c r="Z56" s="2">
+      <c r="AA56" s="2">
         <v>336.13170163781399</v>
       </c>
-      <c r="AA56">
+      <c r="AB56">
         <v>4.7800000000000004E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>-30</v>
       </c>
       <c r="B57">
         <v>-1.22</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57">
+        <v>-230.54</v>
+      </c>
+      <c r="D57" t="s">
         <v>7</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>1.272</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>343</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <f t="shared" si="0"/>
         <v>303</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>5.0599999999999999E-2</v>
       </c>
-      <c r="I57" s="2">
+      <c r="J57" s="2">
         <f t="shared" si="1"/>
         <v>313</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="K57" s="2">
+      <c r="L57" s="2">
         <f t="shared" si="2"/>
         <v>323</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="M57" s="2">
+      <c r="N57" s="2">
         <f t="shared" si="3"/>
         <v>333</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>5.8199999999999997E-3</v>
       </c>
-      <c r="O57" s="2">
+      <c r="P57" s="2">
         <f t="shared" si="4"/>
         <v>343</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>2.1700000000000001E-3</v>
       </c>
-      <c r="Q57" s="2">
+      <c r="R57" s="2">
         <f t="shared" si="5"/>
         <v>353</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>7.8499999999999993E-3</v>
       </c>
-      <c r="S57" s="2">
+      <c r="T57" s="2">
         <f t="shared" si="6"/>
         <v>363</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="U57" s="2">
+      <c r="V57" s="2">
         <f t="shared" si="7"/>
         <v>373</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="W57" s="2">
+      <c r="X57" s="2">
         <f t="shared" si="8"/>
         <v>383</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="Z57" s="2">
+      <c r="AA57" s="2">
         <v>336.54722588931003</v>
       </c>
-      <c r="AA57">
+      <c r="AB57">
         <v>3.8400000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>-30</v>
       </c>
       <c r="B58">
         <v>-1.22</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58">
+        <v>-230.54</v>
+      </c>
+      <c r="D58" t="s">
         <v>7</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>1.036</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>320</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="I58" s="2">
+      <c r="J58" s="2">
         <f t="shared" si="1"/>
         <v>290</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="K58" s="2">
+      <c r="L58" s="2">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>1.9E-2</v>
       </c>
-      <c r="M58" s="2">
+      <c r="N58" s="2">
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>8.0400000000000003E-3</v>
       </c>
-      <c r="O58" s="2">
+      <c r="P58" s="2">
         <f t="shared" si="4"/>
         <v>320</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>2.1900000000000001E-3</v>
       </c>
-      <c r="Q58" s="2">
+      <c r="R58" s="2">
         <f t="shared" si="5"/>
         <v>330</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>3.9899999999999996E-3</v>
       </c>
-      <c r="S58" s="2">
+      <c r="T58" s="2">
         <f t="shared" si="6"/>
         <v>340</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="U58" s="2">
+      <c r="V58" s="2">
         <f t="shared" si="7"/>
         <v>350</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="W58" s="2">
+      <c r="X58" s="2">
         <f t="shared" si="8"/>
         <v>360</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="Z58" s="2">
+      <c r="AA58" s="2">
         <v>335.69612906843872</v>
       </c>
-      <c r="AA58">
+      <c r="AB58">
         <v>4.2700000000000004E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>-30</v>
       </c>
       <c r="B59">
         <v>-1.22</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59">
+        <v>-230.54</v>
+      </c>
+      <c r="D59" t="s">
         <v>6</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>336</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <f t="shared" si="0"/>
         <v>296</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="I59" s="2">
+      <c r="J59" s="2">
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="K59" s="2">
+      <c r="L59" s="2">
         <f t="shared" si="2"/>
         <v>316</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="M59" s="2">
+      <c r="N59" s="2">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="O59" s="2">
+      <c r="P59" s="2">
         <f t="shared" si="4"/>
         <v>336</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>4.5300000000000002E-3</v>
       </c>
-      <c r="Q59" s="2">
+      <c r="R59" s="2">
         <f t="shared" si="5"/>
         <v>346</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>7.2100000000000003E-3</v>
       </c>
-      <c r="S59" s="2">
+      <c r="T59" s="2">
         <f t="shared" si="6"/>
         <v>356</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="U59" s="2">
+      <c r="V59" s="2">
         <f t="shared" si="7"/>
         <v>366</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="W59" s="2">
+      <c r="X59" s="2">
         <f t="shared" si="8"/>
         <v>376</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <v>3.56E-2</v>
       </c>
-      <c r="Z59" s="2">
+      <c r="AA59" s="2">
         <v>336.57688964029097</v>
       </c>
-      <c r="AA59">
+      <c r="AB59">
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>-30</v>
       </c>
       <c r="B60">
         <v>-1.22</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60">
+        <v>-230.54</v>
+      </c>
+      <c r="D60" t="s">
         <v>6</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>1.272</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>346</v>
       </c>
-      <c r="G60" s="1">
+      <c r="H60" s="1">
         <f t="shared" si="0"/>
         <v>306</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="I60" s="2">
+      <c r="J60" s="2">
         <f t="shared" si="1"/>
         <v>316</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="K60" s="2">
+      <c r="L60" s="2">
         <f t="shared" si="2"/>
         <v>326</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>6.9499999999999996E-3</v>
       </c>
-      <c r="M60" s="2">
+      <c r="N60" s="2">
         <f t="shared" si="3"/>
         <v>336</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="O60" s="2">
+      <c r="P60" s="2">
         <f t="shared" si="4"/>
         <v>346</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>1.3600000000000001E-3</v>
       </c>
-      <c r="Q60" s="2">
+      <c r="R60" s="2">
         <f t="shared" si="5"/>
         <v>356</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="S60" s="2">
+      <c r="T60" s="2">
         <f t="shared" si="6"/>
         <v>366</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>8.7799999999999996E-3</v>
       </c>
-      <c r="U60" s="2">
+      <c r="V60" s="2">
         <f t="shared" si="7"/>
         <v>376</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="W60" s="2">
+      <c r="X60" s="2">
         <f t="shared" si="8"/>
         <v>386</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="Z60" s="2">
+      <c r="AA60" s="2">
         <v>334.22446038178742</v>
       </c>
-      <c r="AA60">
+      <c r="AB60">
         <v>0.01</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>-30</v>
       </c>
       <c r="B61">
         <v>-1.22</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61">
+        <v>-230.54</v>
+      </c>
+      <c r="D61" t="s">
         <v>6</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>1.036</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>313</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <f t="shared" si="0"/>
         <v>273</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="I61" s="2">
+      <c r="J61" s="2">
         <f t="shared" si="1"/>
         <v>283</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="K61" s="2">
+      <c r="L61" s="2">
         <f t="shared" si="2"/>
         <v>293</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>2.06E-2</v>
       </c>
-      <c r="M61" s="2">
+      <c r="N61" s="2">
         <f t="shared" si="3"/>
         <v>303</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>7.5300000000000002E-3</v>
       </c>
-      <c r="O61" s="2">
+      <c r="P61" s="2">
         <f t="shared" si="4"/>
         <v>313</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>1.8799999999999999E-3</v>
       </c>
-      <c r="Q61" s="2">
+      <c r="R61" s="2">
         <f t="shared" si="5"/>
         <v>323</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>4.9899999999999996E-3</v>
       </c>
-      <c r="S61" s="2">
+      <c r="T61" s="2">
         <f t="shared" si="6"/>
         <v>333</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>1.6E-2</v>
       </c>
-      <c r="U61" s="2">
+      <c r="V61" s="2">
         <f t="shared" si="7"/>
         <v>343</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>3.1E-2</v>
       </c>
-      <c r="W61" s="2">
+      <c r="X61" s="2">
         <f t="shared" si="8"/>
         <v>353</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="Z61" s="2">
+      <c r="AA61" s="2">
         <v>336.14800698539511</v>
       </c>
-      <c r="AA61">
+      <c r="AB61">
         <v>1.6299999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>-30</v>
       </c>
       <c r="B62">
         <v>-1.22</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62">
+        <v>-230.54</v>
+      </c>
+      <c r="D62" t="s">
         <v>2</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>341</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H62" s="1">
         <f t="shared" si="0"/>
         <v>301</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>2.3E-2</v>
       </c>
-      <c r="I62" s="2">
+      <c r="J62" s="2">
         <f t="shared" si="1"/>
         <v>311</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="K62" s="2">
+      <c r="L62" s="2">
         <f t="shared" si="2"/>
         <v>321</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>7.2100000000000003E-3</v>
       </c>
-      <c r="M62" s="2">
+      <c r="N62" s="2">
         <f t="shared" si="3"/>
         <v>331</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>2.8500000000000001E-3</v>
       </c>
-      <c r="O62" s="2">
+      <c r="P62" s="2">
         <f t="shared" si="4"/>
         <v>341</v>
       </c>
-      <c r="P62">
+      <c r="Q62">
         <v>2.3800000000000002E-3</v>
       </c>
-      <c r="Q62" s="2">
+      <c r="R62" s="2">
         <f t="shared" si="5"/>
         <v>351</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>6.1500000000000001E-3</v>
       </c>
-      <c r="S62" s="2">
+      <c r="T62" s="2">
         <f t="shared" si="6"/>
         <v>361</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>1.29E-2</v>
       </c>
-      <c r="U62" s="2">
+      <c r="V62" s="2">
         <f t="shared" si="7"/>
         <v>371</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="W62" s="2">
+      <c r="X62" s="2">
         <f t="shared" si="8"/>
         <v>381</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="Z62" s="2">
+      <c r="AA62" s="2">
         <v>338.28784038282151</v>
       </c>
-      <c r="AA62">
+      <c r="AB62">
         <v>2.9299999999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>-30</v>
       </c>
       <c r="B63">
         <v>-1.22</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63">
+        <v>-230.54</v>
+      </c>
+      <c r="D63" t="s">
         <v>2</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>1.272</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>340</v>
       </c>
-      <c r="G63" s="1">
+      <c r="H63" s="1">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>2.4899999999999999E-2</v>
       </c>
-      <c r="I63" s="2">
+      <c r="J63" s="2">
         <f t="shared" si="1"/>
         <v>310</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="K63" s="2">
+      <c r="L63" s="2">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>7.9399999999999991E-3</v>
       </c>
-      <c r="M63" s="2">
+      <c r="N63" s="2">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>1.99E-3</v>
       </c>
-      <c r="O63" s="2">
+      <c r="P63" s="2">
         <f t="shared" si="4"/>
         <v>340</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <v>9.8400000000000007E-4</v>
       </c>
-      <c r="Q63" s="2">
+      <c r="R63" s="2">
         <f t="shared" si="5"/>
         <v>350</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>2.0200000000000001E-3</v>
       </c>
-      <c r="S63" s="2">
+      <c r="T63" s="2">
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <v>6.0800000000000003E-3</v>
       </c>
-      <c r="U63" s="2">
+      <c r="V63" s="2">
         <f t="shared" si="7"/>
         <v>370</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>1.18E-2</v>
       </c>
-      <c r="W63" s="2">
+      <c r="X63" s="2">
         <f t="shared" si="8"/>
         <v>380</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="Z63" s="2">
+      <c r="AA63" s="2">
         <v>335.95791532802173</v>
       </c>
-      <c r="AA63">
+      <c r="AB63">
         <v>2.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>-30</v>
       </c>
       <c r="B64">
         <v>-1.22</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64">
+        <v>-230.54</v>
+      </c>
+      <c r="D64" t="s">
         <v>2</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>1.036</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>328</v>
       </c>
-      <c r="G64" s="1">
+      <c r="H64" s="1">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="I64" s="2">
+      <c r="J64" s="2">
         <f t="shared" si="1"/>
         <v>298</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>1.01E-2</v>
       </c>
-      <c r="K64" s="2">
+      <c r="L64" s="2">
         <f t="shared" si="2"/>
         <v>308</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>4.9800000000000001E-3</v>
       </c>
-      <c r="M64" s="2">
+      <c r="N64" s="2">
         <f t="shared" si="3"/>
         <v>318</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>1.64E-3</v>
       </c>
-      <c r="O64" s="2">
+      <c r="P64" s="2">
         <f t="shared" si="4"/>
         <v>328</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <v>6.1300000000000005E-4</v>
       </c>
-      <c r="Q64" s="2">
+      <c r="R64" s="2">
         <f t="shared" si="5"/>
         <v>338</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>2.0899999999999998E-3</v>
       </c>
-      <c r="S64" s="2">
+      <c r="T64" s="2">
         <f t="shared" si="6"/>
         <v>348</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <v>5.77E-3</v>
       </c>
-      <c r="U64" s="2">
+      <c r="V64" s="2">
         <f t="shared" si="7"/>
         <v>358</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>1.11E-2</v>
       </c>
-      <c r="W64" s="2">
+      <c r="X64" s="2">
         <f t="shared" si="8"/>
         <v>368</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="Z64" s="2">
+      <c r="AA64" s="2">
         <v>335.2749258914456</v>
       </c>
-      <c r="AA64">
+      <c r="AB64">
         <v>2.6900000000000001E-3</v>
       </c>
     </row>
